--- a/sandbox/пример расчета струйника.xlsx
+++ b/sandbox/пример расчета струйника.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073C2E90-7D91-4EEA-89A0-79A418BFB668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F374BC-937C-42FB-8825-5A4B3B91FCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{98CE4D92-F1C2-4FA3-9F94-FDA5AF01A5FF}"/>
+    <workbookView xWindow="-10785" yWindow="645" windowWidth="21600" windowHeight="11385" xr2:uid="{98CE4D92-F1C2-4FA3-9F94-FDA5AF01A5FF}"/>
   </bookViews>
   <sheets>
     <sheet name="расчет pout - жидкость" sheetId="1" r:id="rId1"/>
@@ -31554,15 +31554,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>533809</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>187444</xdr:rowOff>
+      <xdr:colOff>89309</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>201251</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>370584</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>121766</xdr:rowOff>
+      <xdr:rowOff>132349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34372,8 +34372,8 @@
   </sheetPr>
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -42016,7 +42016,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="B2:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
